--- a/Format JavDB-ApplicationDeveloperEvaluationSheet.xlsx
+++ b/Format JavDB-ApplicationDeveloperEvaluationSheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Core Java</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>BABPM2259M</t>
   </si>
 </sst>
 </file>
@@ -232,6 +229,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -243,9 +243,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,11 +572,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -593,7 +590,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -607,7 +604,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -619,7 +616,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -628,7 +625,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -637,7 +634,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -646,7 +643,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -655,7 +652,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -664,7 +661,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -673,7 +670,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -684,7 +681,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -693,7 +690,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -704,7 +701,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
@@ -713,7 +710,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
@@ -722,7 +719,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
@@ -740,9 +737,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
